--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125081a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125081a.xlsx
@@ -1,43 +1,174 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="dados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>realização do registro do último furto na delegacia de polícia</t>
+  </si>
+  <si>
+    <t>unnamed: 1_level_1</t>
+  </si>
+  <si>
+    <t>realizaram</t>
+  </si>
+  <si>
+    <t>não realizaram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               brasil</t>
+  </si>
+  <si>
+    <t>situação do domicílio</t>
+  </si>
+  <si>
+    <t>urbana</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>grandes regiões e unidades da federação</t>
+  </si>
+  <si>
+    <t>norte</t>
+  </si>
+  <si>
+    <t>rondônia</t>
+  </si>
+  <si>
+    <t>acre</t>
+  </si>
+  <si>
+    <t>amazonas</t>
+  </si>
+  <si>
+    <t>roraima</t>
+  </si>
+  <si>
+    <t>pará</t>
+  </si>
+  <si>
+    <t>amapá</t>
+  </si>
+  <si>
+    <t>tocantins</t>
+  </si>
+  <si>
+    <t>nordeste</t>
+  </si>
+  <si>
+    <t>maranhão</t>
+  </si>
+  <si>
+    <t>piauí</t>
+  </si>
+  <si>
+    <t>ceará</t>
+  </si>
+  <si>
+    <t>rio grande do norte</t>
+  </si>
+  <si>
+    <t>paraíba</t>
+  </si>
+  <si>
+    <t>pernambuco</t>
+  </si>
+  <si>
+    <t>alagoas</t>
+  </si>
+  <si>
+    <t>sergipe</t>
+  </si>
+  <si>
+    <t>bahia</t>
+  </si>
+  <si>
+    <t>sudeste</t>
+  </si>
+  <si>
+    <t>minas gerais</t>
+  </si>
+  <si>
+    <t>espírito santo</t>
+  </si>
+  <si>
+    <t>rio de janeiro</t>
+  </si>
+  <si>
+    <t>são paulo</t>
+  </si>
+  <si>
+    <t>sul</t>
+  </si>
+  <si>
+    <t>paraná</t>
+  </si>
+  <si>
+    <t>santa catarina</t>
+  </si>
+  <si>
+    <t>rio grande do sul</t>
+  </si>
+  <si>
+    <t>centro-oeste</t>
+  </si>
+  <si>
+    <t>mato grosso do sul</t>
+  </si>
+  <si>
+    <t>mato grosso</t>
+  </si>
+  <si>
+    <t>goiás</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,30 +177,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -77,83 +196,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -441,608 +493,518 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Realização do registro do último furto na delegacia de polícia</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Realizaram </t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Não realizaram </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">               Brasil</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>2.14</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2.26</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>5.39</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Situação do domicílio</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Urbana</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>2.28</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>2.4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>5.66</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>7.15</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>7.61</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>18.2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Grandes Regiões e Unidades da Federação</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Norte</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
         <v>5.78</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>5.91</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>16.92</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Rondônia</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
         <v>15.53</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>14.57</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>52.65</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
         <v>11.21</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>10.93</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>31.44</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Amazonas</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
         <v>15.08</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>15.34</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>58.71</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Roraima</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
         <v>14.92</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>15.64</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>74.08</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Pará</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
         <v>11.41</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>12.18</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>25.61</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Amapá</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
         <v>15.83</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>17.76</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>52.19</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Tocantins</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
         <v>15.74</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>15.98</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>51.49</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
         <v>4.52</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>4.97</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>9.58</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Maranhão</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
         <v>17.43</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>19.56</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>33.34</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Piauí</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
         <v>18.77</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>19.3</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>35.26</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Ceará</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
         <v>7.21</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>7.12</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>14.87</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Rio Grande do Norte</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
         <v>17.12</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>18.75</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>30.58</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Paraíba</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
         <v>21.6</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>26.64</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>37.49</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Pernambuco</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
         <v>8.85</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>10.84</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>36.17</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Alagoas</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
         <v>19.62</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>24.16</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>36.19</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
         <v>16.15</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>17.54</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>21.72</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Bahia</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
         <v>8.07</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>8.68</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>20.1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Sudeste</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
         <v>3.79</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>3.93</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>10.39</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Minas Gerais</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
         <v>6.7</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>7.01</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>17.25</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Espírito Santo</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
         <v>15.48</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>16.38</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>36.87</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
         <v>8.69</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>9.050000000000001</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>25.79</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
         <v>5.44</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>5.6</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>15.35</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Sul</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
         <v>4.26</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>4.43</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>13.38</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Paraná</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
         <v>7.07</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>7.03</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>20.21</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Santa Catarina</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
         <v>8.34</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>9.08</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>28.93</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Rio Grande do Sul</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
         <v>6.9</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>7.31</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>22.11</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Centro-Oeste</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
         <v>4.37</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>4.73</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>11.94</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Mato Grosso do Sul</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
         <v>9.890000000000001</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>10.6</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>29.2</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Mato Grosso</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
         <v>9.01</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>10.43</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>23.35</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Goiás</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
         <v>7.25</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>7.91</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>16.66</v>
       </c>
     </row>
@@ -1050,6 +1012,6 @@
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125081a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125081a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>total</t>
   </si>
@@ -22,9 +22,6 @@
     <t>realização do registro do último furto na delegacia de polícia</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>realizaram</t>
   </si>
   <si>
@@ -34,16 +31,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -494,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,18 +504,18 @@
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>2.14</v>
@@ -538,473 +529,463 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2.28</v>
+      </c>
+      <c r="C5">
+        <v>2.4</v>
+      </c>
+      <c r="D5">
+        <v>5.66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2.28</v>
+        <v>7.15</v>
       </c>
       <c r="C6">
-        <v>2.4</v>
+        <v>7.61</v>
       </c>
       <c r="D6">
-        <v>5.66</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>7.15</v>
+        <v>5.78</v>
       </c>
       <c r="C7">
-        <v>7.61</v>
+        <v>5.91</v>
       </c>
       <c r="D7">
-        <v>18.2</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>15.53</v>
+      </c>
+      <c r="C8">
+        <v>14.57</v>
+      </c>
+      <c r="D8">
+        <v>52.65</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>5.78</v>
+        <v>11.21</v>
       </c>
       <c r="C9">
-        <v>5.91</v>
+        <v>10.93</v>
       </c>
       <c r="D9">
-        <v>16.92</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>15.53</v>
+        <v>15.08</v>
       </c>
       <c r="C10">
-        <v>14.57</v>
+        <v>15.34</v>
       </c>
       <c r="D10">
-        <v>52.65</v>
+        <v>58.71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>11.21</v>
+        <v>14.92</v>
       </c>
       <c r="C11">
-        <v>10.93</v>
+        <v>15.64</v>
       </c>
       <c r="D11">
-        <v>31.44</v>
+        <v>74.08</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>15.08</v>
+        <v>11.41</v>
       </c>
       <c r="C12">
-        <v>15.34</v>
+        <v>12.18</v>
       </c>
       <c r="D12">
-        <v>58.71</v>
+        <v>25.61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>14.92</v>
+        <v>15.83</v>
       </c>
       <c r="C13">
-        <v>15.64</v>
+        <v>17.76</v>
       </c>
       <c r="D13">
-        <v>74.08</v>
+        <v>52.19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>11.41</v>
+        <v>15.74</v>
       </c>
       <c r="C14">
-        <v>12.18</v>
+        <v>15.98</v>
       </c>
       <c r="D14">
-        <v>25.61</v>
+        <v>51.49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>15.83</v>
+        <v>4.52</v>
       </c>
       <c r="C15">
-        <v>17.76</v>
+        <v>4.97</v>
       </c>
       <c r="D15">
-        <v>52.19</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>15.74</v>
+        <v>17.43</v>
       </c>
       <c r="C16">
-        <v>15.98</v>
+        <v>19.56</v>
       </c>
       <c r="D16">
-        <v>51.49</v>
+        <v>33.34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>4.52</v>
+        <v>18.77</v>
       </c>
       <c r="C17">
-        <v>4.97</v>
+        <v>19.3</v>
       </c>
       <c r="D17">
-        <v>9.58</v>
+        <v>35.26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>17.43</v>
+        <v>7.21</v>
       </c>
       <c r="C18">
-        <v>19.56</v>
+        <v>7.12</v>
       </c>
       <c r="D18">
-        <v>33.34</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>18.77</v>
+        <v>17.12</v>
       </c>
       <c r="C19">
-        <v>19.3</v>
+        <v>18.75</v>
       </c>
       <c r="D19">
-        <v>35.26</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>7.21</v>
+        <v>21.6</v>
       </c>
       <c r="C20">
-        <v>7.12</v>
+        <v>26.64</v>
       </c>
       <c r="D20">
-        <v>14.87</v>
+        <v>37.49</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>17.12</v>
+        <v>8.85</v>
       </c>
       <c r="C21">
-        <v>18.75</v>
+        <v>10.84</v>
       </c>
       <c r="D21">
-        <v>30.58</v>
+        <v>36.17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>21.6</v>
+        <v>19.62</v>
       </c>
       <c r="C22">
-        <v>26.64</v>
+        <v>24.16</v>
       </c>
       <c r="D22">
-        <v>37.49</v>
+        <v>36.19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>8.85</v>
+        <v>16.15</v>
       </c>
       <c r="C23">
-        <v>10.84</v>
+        <v>17.54</v>
       </c>
       <c r="D23">
-        <v>36.17</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>19.62</v>
+        <v>8.07</v>
       </c>
       <c r="C24">
-        <v>24.16</v>
+        <v>8.68</v>
       </c>
       <c r="D24">
-        <v>36.19</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>16.15</v>
+        <v>3.79</v>
       </c>
       <c r="C25">
-        <v>17.54</v>
+        <v>3.93</v>
       </c>
       <c r="D25">
-        <v>21.72</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>8.07</v>
+        <v>6.7</v>
       </c>
       <c r="C26">
-        <v>8.68</v>
+        <v>7.01</v>
       </c>
       <c r="D26">
-        <v>20.1</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>3.79</v>
+        <v>15.48</v>
       </c>
       <c r="C27">
-        <v>3.93</v>
+        <v>16.38</v>
       </c>
       <c r="D27">
-        <v>10.39</v>
+        <v>36.87</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>6.7</v>
+        <v>8.69</v>
       </c>
       <c r="C28">
-        <v>7.01</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="D28">
-        <v>17.25</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>15.48</v>
+        <v>5.44</v>
       </c>
       <c r="C29">
-        <v>16.38</v>
+        <v>5.6</v>
       </c>
       <c r="D29">
-        <v>36.87</v>
+        <v>15.35</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>8.69</v>
+        <v>4.26</v>
       </c>
       <c r="C30">
-        <v>9.050000000000001</v>
+        <v>4.43</v>
       </c>
       <c r="D30">
-        <v>25.79</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>5.44</v>
+        <v>7.07</v>
       </c>
       <c r="C31">
-        <v>5.6</v>
+        <v>7.03</v>
       </c>
       <c r="D31">
-        <v>15.35</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>4.26</v>
+        <v>8.34</v>
       </c>
       <c r="C32">
-        <v>4.43</v>
+        <v>9.08</v>
       </c>
       <c r="D32">
-        <v>13.38</v>
+        <v>28.93</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>7.07</v>
+        <v>6.9</v>
       </c>
       <c r="C33">
-        <v>7.03</v>
+        <v>7.31</v>
       </c>
       <c r="D33">
-        <v>20.21</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>8.34</v>
+        <v>4.37</v>
       </c>
       <c r="C34">
-        <v>9.08</v>
+        <v>4.73</v>
       </c>
       <c r="D34">
-        <v>28.93</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>6.9</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C35">
-        <v>7.31</v>
+        <v>10.6</v>
       </c>
       <c r="D35">
-        <v>22.11</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>4.37</v>
+        <v>9.01</v>
       </c>
       <c r="C36">
-        <v>4.73</v>
+        <v>10.43</v>
       </c>
       <c r="D36">
-        <v>11.94</v>
+        <v>23.35</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>9.890000000000001</v>
+        <v>7.25</v>
       </c>
       <c r="C37">
-        <v>10.6</v>
+        <v>7.91</v>
       </c>
       <c r="D37">
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38">
-        <v>9.01</v>
-      </c>
-      <c r="C38">
-        <v>10.43</v>
-      </c>
-      <c r="D38">
-        <v>23.35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>7.25</v>
-      </c>
-      <c r="C39">
-        <v>7.91</v>
-      </c>
-      <c r="D39">
         <v>16.66</v>
       </c>
     </row>
